--- a/ResultadoEleicoesDistritos/LISBOA_LOURES.xlsx
+++ b/ResultadoEleicoesDistritos/LISBOA_LOURES.xlsx
@@ -597,64 +597,64 @@
         <v>50541</v>
       </c>
       <c r="H2" t="n">
-        <v>1825</v>
+        <v>1939</v>
       </c>
       <c r="I2" t="n">
-        <v>5054</v>
+        <v>5196</v>
       </c>
       <c r="J2" t="n">
-        <v>20955</v>
+        <v>20801</v>
       </c>
       <c r="K2" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="L2" t="n">
-        <v>5675</v>
+        <v>5558</v>
       </c>
       <c r="M2" t="n">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="N2" t="n">
-        <v>3665</v>
+        <v>3581</v>
       </c>
       <c r="O2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P2" t="n">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="Q2" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="S2" t="n">
-        <v>2196</v>
+        <v>2224</v>
       </c>
       <c r="T2" t="n">
-        <v>3624</v>
+        <v>3610</v>
       </c>
       <c r="U2" t="n">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="V2" t="n">
-        <v>32424</v>
+        <v>32433</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X2" t="n">
-        <v>32294</v>
+        <v>32310</v>
       </c>
       <c r="Y2" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="n">
-        <v>452</v>
+        <v>496</v>
       </c>
       <c r="AA2" t="n">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
